--- a/biology/Médecine/Georg_Thomas_von_Asch/Georg_Thomas_von_Asch.xlsx
+++ b/biology/Médecine/Georg_Thomas_von_Asch/Georg_Thomas_von_Asch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georg Thomas von Asch (12 avril 1729 - 23 juin 1807) est un médecin de Saint-Pétersbourg.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Georg Thomas von Asch naît à Saint-Pétersbourg. Il fait ses études à l'université de Tübingen (1744–1748) puis de Göttingen (à partir de 1748). En 1763, Georg Thomas von Asch devient le premier membre du Collège de médecine de Saint-Pétersbourg. Il est médecin d'état-major général de 1768 à 1775. En 1777, il est élu au titre de membre étranger à l'Académie des sciences de Göttingen[1]. En 1779, il est élu membre d'honneur de l'Académie impériale des sciences de Russie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Georg Thomas von Asch naît à Saint-Pétersbourg. Il fait ses études à l'université de Tübingen (1744–1748) puis de Göttingen (à partir de 1748). En 1763, Georg Thomas von Asch devient le premier membre du Collège de médecine de Saint-Pétersbourg. Il est médecin d'état-major général de 1768 à 1775. En 1777, il est élu au titre de membre étranger à l'Académie des sciences de Göttingen. En 1779, il est élu membre d'honneur de l'Académie impériale des sciences de Russie.
 </t>
         </is>
       </c>
